--- a/엑셀/차트_혼합.xlsx
+++ b/엑셀/차트_혼합.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21901"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28429"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\2019합본호개정판\Data\4장\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\kjw\QGIS\엑셀\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{F8E46118-2A5B-449A-B0DB-DE63F81F100B}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{631E9008-2FFC-4044-B114-3A0F14D37193}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="15600" windowHeight="11760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-26730" yWindow="-1740" windowWidth="25035" windowHeight="15585" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="혼합차트" sheetId="2" r:id="rId1"/>
@@ -20,6 +20,12 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -27,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
   <si>
     <t>연도</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -226,7 +232,7 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1">
@@ -241,13 +247,13 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="1" xfId="3" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -436,6 +442,22 @@
             </c:ext>
           </c:extLst>
         </c:ser>
+        <c:dLbls>
+          <c:dLblPos val="inEnd"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="65"/>
+        <c:axId val="304023816"/>
+        <c:axId val="304025776"/>
+      </c:barChart>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="1"/>
           <c:order val="1"/>
@@ -451,22 +473,19 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent2">
-                <a:alpha val="85000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:ln w="31750" cap="rnd">
               <a:solidFill>
-                <a:schemeClr val="lt1">
-                  <a:alpha val="50000"/>
+                <a:schemeClr val="accent2">
+                  <a:alpha val="85000"/>
                 </a:schemeClr>
               </a:solidFill>
               <a:round/>
             </a:ln>
             <a:effectLst/>
           </c:spPr>
-          <c:invertIfNegative val="0"/>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
           <c:dLbls>
             <c:spPr>
               <a:noFill/>
@@ -494,7 +513,6 @@
                 <a:endParaRPr lang="ko-KR"/>
               </a:p>
             </c:txPr>
-            <c:dLblPos val="inEnd"/>
             <c:showLegendKey val="0"/>
             <c:showVal val="1"/>
             <c:showCatName val="0"/>
@@ -568,6 +586,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-770F-4C96-A408-4A1B39C5B4FE}"/>
@@ -575,18 +594,18 @@
           </c:extLst>
         </c:ser>
         <c:dLbls>
-          <c:dLblPos val="inEnd"/>
           <c:showLegendKey val="0"/>
-          <c:showVal val="1"/>
+          <c:showVal val="0"/>
           <c:showCatName val="0"/>
           <c:showSerName val="0"/>
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:gapWidth val="65"/>
-        <c:axId val="304023816"/>
-        <c:axId val="304025776"/>
-      </c:barChart>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="1103204223"/>
+        <c:axId val="1103206143"/>
+      </c:lineChart>
       <c:catAx>
         <c:axId val="304023816"/>
         <c:scaling>
@@ -706,6 +725,65 @@
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
+      <c:valAx>
+        <c:axId val="1103206143"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="r"/>
+        <c:numFmt formatCode="0%" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="dk1">
+                    <a:lumMod val="75000"/>
+                    <a:lumOff val="25000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ko-KR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1103204223"/>
+        <c:crosses val="max"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:catAx>
+        <c:axId val="1103204223"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="1"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="1103206143"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
       <c:spPr>
         <a:noFill/>
         <a:ln>
@@ -3183,7 +3261,7 @@
   <dimension ref="A1:N13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+      <selection activeCell="O6" sqref="O6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -3193,11 +3271,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="20.25">
-      <c r="A1" s="9" t="s">
+      <c r="A1" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="10"/>
-      <c r="C1" s="10"/>
+      <c r="B1" s="11"/>
+      <c r="C1" s="11"/>
       <c r="D1" s="4"/>
     </row>
     <row r="2" spans="1:14">
@@ -3206,13 +3284,13 @@
       </c>
     </row>
     <row r="3" spans="1:14" ht="18" customHeight="1">
-      <c r="A3" s="11" t="s">
+      <c r="A3" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="11" t="s">
+      <c r="B3" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="11" t="s">
+      <c r="C3" s="9" t="s">
         <v>1</v>
       </c>
     </row>
